--- a/牛客笔试题/多线程.xlsx
+++ b/牛客笔试题/多线程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="18840" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,6 +32,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -39,10 +62,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,10 +147,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,106 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,181 +191,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,17 +379,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +413,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -441,41 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="69850"/>
-          <a:ext cx="3892550" cy="3702050"/>
+          <a:ext cx="4235450" cy="3568700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241800" y="1473200"/>
-          <a:ext cx="4464050" cy="400050"/>
+          <a:off x="4622800" y="1422400"/>
+          <a:ext cx="4864100" cy="387350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="4648200"/>
-          <a:ext cx="5028565" cy="3651250"/>
+          <a:off x="635" y="4483100"/>
+          <a:ext cx="5467350" cy="3524250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5289550" y="4699000"/>
-          <a:ext cx="7646035" cy="1104900"/>
+          <a:off x="5765800" y="4533900"/>
+          <a:ext cx="8331835" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5378450" y="6134100"/>
-          <a:ext cx="7944485" cy="1409700"/>
+          <a:off x="5854700" y="5918200"/>
+          <a:ext cx="8668385" cy="1358900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="445770" y="8572500"/>
-          <a:ext cx="8312785" cy="4718050"/>
+          <a:off x="483870" y="8267700"/>
+          <a:ext cx="9055735" cy="4552950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,8 +973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44450" y="14446250"/>
-          <a:ext cx="4032250" cy="3695700"/>
+          <a:off x="44450" y="13931900"/>
+          <a:ext cx="4394200" cy="3562350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,8 +1015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="15347950"/>
-          <a:ext cx="4711700" cy="1130300"/>
+          <a:off x="4953000" y="14801850"/>
+          <a:ext cx="5149850" cy="1092200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,8 +1057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="204470" y="18757900"/>
-          <a:ext cx="3810000" cy="5124450"/>
+          <a:off x="204470" y="18091150"/>
+          <a:ext cx="4171950" cy="4940300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,8 +1099,257 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4089400" y="20345400"/>
-          <a:ext cx="8242935" cy="3270250"/>
+          <a:off x="4451350" y="19621500"/>
+          <a:ext cx="8985885" cy="3155950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="210820" y="24288750"/>
+          <a:ext cx="8839200" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="25717500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="25374600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="28803600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="28584525"/>
+          <a:ext cx="6781800" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220345</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>67945</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448945" y="32156400"/>
+          <a:ext cx="6705600" cy="4791075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,11 +1654,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="V117" sqref="V117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="AH190" sqref="AH190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="3" customWidth="1"/>
   </cols>
@@ -1430,7 +1679,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1447,7 +1696,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/多线程.xlsx
+++ b/牛客笔试题/多线程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="10275"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -41,7 +41,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,127 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,13 +185,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,25 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,139 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,24 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,17 +394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +452,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,16 +496,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,115 +514,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1350,6 +1350,174 @@
         <a:xfrm>
           <a:off x="448945" y="32156400"/>
           <a:ext cx="6705600" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="38290500"/>
+          <a:ext cx="5829300" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="38804850"/>
+          <a:ext cx="5972175" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="42233850"/>
+          <a:ext cx="5838825" cy="6038850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="42310050"/>
+          <a:ext cx="8353425" cy="6181725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1654,8 +1822,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="AH190" sqref="AH190"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="AH241" sqref="AH241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>

--- a/牛客笔试题/多线程.xlsx
+++ b/牛客笔试题/多线程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -29,6 +29,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -41,7 +71,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -50,6 +87,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,53 +132,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,23 +153,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,26 +170,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,85 +185,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,79 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,34 +436,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,33 +468,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1518,6 +1518,258 @@
         <a:xfrm>
           <a:off x="5962650" y="42310050"/>
           <a:ext cx="8353425" cy="6181725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="50834925"/>
+          <a:ext cx="3867150" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="54816375"/>
+          <a:ext cx="8153400" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="56930925"/>
+          <a:ext cx="8096250" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21" r:link="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="58826400"/>
+          <a:ext cx="6544310" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="65236725"/>
+          <a:ext cx="3571875" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="67103625"/>
+          <a:ext cx="4419600" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1822,8 +2074,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="AH241" sqref="AH241"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="AX383" sqref="AX383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>

--- a/牛客笔试题/多线程.xlsx
+++ b/牛客笔试题/多线程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="10950"/>
+    <workbookView windowWidth="24015" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -29,6 +29,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,54 +107,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,16 +123,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -132,13 +163,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,31 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,25 +185,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,157 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,41 +379,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,8 +406,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,6 +1770,90 @@
         <a:xfrm>
           <a:off x="4629150" y="67103625"/>
           <a:ext cx="4419600" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="71256525"/>
+          <a:ext cx="5124450" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="72018525"/>
+          <a:ext cx="7477125" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,8 +2158,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="AX383" sqref="AX383"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="AG425" sqref="AG425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>

--- a/牛客笔试题/多线程.xlsx
+++ b/牛客笔试题/多线程.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\牛客笔试题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B3A37-7106-408E-B392-55CDA2EFD457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24015" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,345 +32,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -378,251 +54,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -631,68 +65,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -708,13 +98,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -750,13 +146,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -792,13 +194,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -834,13 +242,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -876,13 +290,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -918,13 +338,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -960,13 +386,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,13 +434,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1044,13 +482,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,13 +530,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1128,13 +578,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,7 +626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1211,7 +673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1252,7 +720,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1293,13 +767,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1335,13 +815,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1377,13 +863,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1419,13 +911,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1461,13 +959,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,13 +1007,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1545,13 +1055,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1587,13 +1103,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1629,13 +1151,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1671,13 +1199,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21" r:link="rId22"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" r:link="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1713,13 +1247,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1755,13 +1295,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1797,13 +1343,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1839,13 +1391,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1862,6 +1420,94 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>18158</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>170877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9630528-38A8-42CC-B92D-208BCB6A4A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="76685775"/>
+          <a:ext cx="7133333" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>56263</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>151893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38682B2A-7457-43A2-9AB9-EBDC309447F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="81819750"/>
+          <a:ext cx="7095238" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2150,60 +1796,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="AG425" sqref="AG425"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="D478" sqref="D478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>